--- a/data/trans_orig/P6712-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>9533</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4202</v>
+        <v>4090</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17326</v>
+        <v>16631</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03544526087651431</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01562265438103568</v>
+        <v>0.01520861651699446</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06442326881795794</v>
+        <v>0.06183955438170601</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -763,19 +763,19 @@
         <v>7271</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3107</v>
+        <v>3075</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14673</v>
+        <v>13865</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04536707296058297</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01938947370945843</v>
+        <v>0.01918895950580611</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09155393162136977</v>
+        <v>0.0865117892132013</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -784,19 +784,19 @@
         <v>16803</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9998</v>
+        <v>10052</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26348</v>
+        <v>26889</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03915007736219658</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02329367474330305</v>
+        <v>0.02342001778782319</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06138867403175664</v>
+        <v>0.06264862820164487</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>15666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8565</v>
+        <v>8691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25719</v>
+        <v>25909</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05825326967625591</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03184751120391651</v>
+        <v>0.03231593157810729</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09563372861749855</v>
+        <v>0.09633700583561844</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -834,19 +834,19 @@
         <v>10946</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5136</v>
+        <v>5180</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19073</v>
+        <v>19896</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06830192173378198</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03204411974264735</v>
+        <v>0.03232428659628334</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1190106840744301</v>
+        <v>0.1241457905080642</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -855,19 +855,19 @@
         <v>26613</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15807</v>
+        <v>17165</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40577</v>
+        <v>39330</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06200544835956164</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03682964451738679</v>
+        <v>0.03999254519657723</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09454032228227296</v>
+        <v>0.09163497668369029</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>36690</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26156</v>
+        <v>26236</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49767</v>
+        <v>49628</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.136426004945344</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09725546018711671</v>
+        <v>0.09755477940340074</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1850513607567031</v>
+        <v>0.1845354316017663</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -905,19 +905,19 @@
         <v>17324</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11010</v>
+        <v>10551</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26787</v>
+        <v>26836</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1080940996710986</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06869792252707728</v>
+        <v>0.06583354247072436</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1671434352939217</v>
+        <v>0.167450574376841</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>53</v>
@@ -926,19 +926,19 @@
         <v>54014</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>40928</v>
+        <v>40826</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69082</v>
+        <v>66619</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.125846837668093</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09535961067944575</v>
+        <v>0.09512106519811217</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1609558866717989</v>
+        <v>0.1552172421746451</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>50979</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40049</v>
+        <v>38989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64445</v>
+        <v>64598</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1895570306897627</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1489164327075896</v>
+        <v>0.1449736767951813</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.239628475026913</v>
+        <v>0.2401976346412122</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -976,19 +976,19 @@
         <v>47657</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36512</v>
+        <v>36534</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60398</v>
+        <v>60755</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2973677062009064</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.227826736223606</v>
+        <v>0.2279610106663741</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3768681767901968</v>
+        <v>0.3790929843871806</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>98</v>
@@ -997,19 +997,19 @@
         <v>98636</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81861</v>
+        <v>80003</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115636</v>
+        <v>116209</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2298136657259744</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1907287404912561</v>
+        <v>0.1863989240262337</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2694227075674128</v>
+        <v>0.2707562320984984</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>156069</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>139178</v>
+        <v>140206</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>172292</v>
+        <v>171702</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5803184338121231</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5175125115439733</v>
+        <v>0.5213326445172908</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6406411025758503</v>
+        <v>0.6384479200018364</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>71</v>
@@ -1047,19 +1047,19 @@
         <v>77066</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>65340</v>
+        <v>64495</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90050</v>
+        <v>89912</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4808691994336301</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4077028947361653</v>
+        <v>0.4024310020787896</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5618847314534186</v>
+        <v>0.5610255961823907</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>219</v>
@@ -1068,19 +1068,19 @@
         <v>233135</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>211326</v>
+        <v>213492</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>253805</v>
+        <v>254689</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5431839708841744</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.492371325128592</v>
+        <v>0.4974183290467946</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5913438851212681</v>
+        <v>0.5934032070396839</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>20552</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12125</v>
+        <v>13016</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30530</v>
+        <v>31801</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05030008545786695</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02967501632137634</v>
+        <v>0.03185682881310305</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07472091640620979</v>
+        <v>0.07783009816758152</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1193,19 +1193,19 @@
         <v>12803</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7319</v>
+        <v>6405</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21632</v>
+        <v>21998</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04754987175005371</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0271826016271915</v>
+        <v>0.02378758051880097</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08033793685359113</v>
+        <v>0.08169644782936403</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1214,19 +1214,19 @@
         <v>33355</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23362</v>
+        <v>22882</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46529</v>
+        <v>46833</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0492076208469096</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03446537333319006</v>
+        <v>0.03375675517798309</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06864214390198844</v>
+        <v>0.0690909669252963</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>18043</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11265</v>
+        <v>10687</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28727</v>
+        <v>28115</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04415964859373361</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02756994723494666</v>
+        <v>0.02615592104727437</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07030767927074724</v>
+        <v>0.06881119712663158</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1264,19 +1264,19 @@
         <v>10545</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5161</v>
+        <v>5423</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18841</v>
+        <v>18041</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03916304711397159</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0191685745347767</v>
+        <v>0.02014176759609382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06997362225009353</v>
+        <v>0.06700343809118328</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -1285,19 +1285,19 @@
         <v>28588</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19584</v>
+        <v>19508</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>39160</v>
+        <v>40429</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04217485363900355</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02889142330528639</v>
+        <v>0.02877894309928304</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05777114414810593</v>
+        <v>0.05964240191799784</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>72101</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>56886</v>
+        <v>57882</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>89460</v>
+        <v>90889</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1764636747662376</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1392248332675331</v>
+        <v>0.1416626352571948</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.218949107489869</v>
+        <v>0.2224463535835676</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -1335,19 +1335,19 @@
         <v>48500</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>35554</v>
+        <v>37103</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>63385</v>
+        <v>62827</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1801205162217195</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.13204274772846</v>
+        <v>0.1377969147481819</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.235401023943223</v>
+        <v>0.2333306637482589</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>110</v>
@@ -1356,19 +1356,19 @@
         <v>120601</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>99175</v>
+        <v>100894</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>141638</v>
+        <v>142732</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1779162782008893</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1463079095959143</v>
+        <v>0.1488440969494273</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2089517152975674</v>
+        <v>0.2105653647134213</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>98695</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80854</v>
+        <v>82369</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116028</v>
+        <v>119349</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2415507805007641</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1978857598025717</v>
+        <v>0.2015926162212633</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2839735775526103</v>
+        <v>0.292100409116216</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -1406,19 +1406,19 @@
         <v>68731</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54508</v>
+        <v>54390</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85152</v>
+        <v>84300</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2552568837987502</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.202434196112965</v>
+        <v>0.2019953762699772</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3162406333998791</v>
+        <v>0.313078825317552</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -1427,19 +1427,19 @@
         <v>167426</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>144087</v>
+        <v>144959</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>191880</v>
+        <v>189886</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2469952420582921</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2125641224949157</v>
+        <v>0.2138508788371437</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2830717842366487</v>
+        <v>0.2801299269970797</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>199198</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>180107</v>
+        <v>177727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>220353</v>
+        <v>221773</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4875258106813977</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4408024034137192</v>
+        <v>0.434977333105772</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.539301913091692</v>
+        <v>0.5427774747542194</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -1477,19 +1477,19 @@
         <v>128683</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>110652</v>
+        <v>110934</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>145130</v>
+        <v>145063</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.477909681115505</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4109457355358744</v>
+        <v>0.4119938858527366</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5389913949349497</v>
+        <v>0.5387421314163526</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>300</v>
@@ -1498,19 +1498,19 @@
         <v>327880</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>300603</v>
+        <v>302238</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>355132</v>
+        <v>354720</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4837060052549054</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4434651222833642</v>
+        <v>0.4458774967276949</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5239094548955067</v>
+        <v>0.5233020633782087</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>13251</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7087</v>
+        <v>7139</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21021</v>
+        <v>21246</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04147262106649974</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02218170439698133</v>
+        <v>0.02234380245361669</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06579158824088184</v>
+        <v>0.06649657115657676</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1623,19 +1623,19 @@
         <v>11225</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5314</v>
+        <v>5826</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19499</v>
+        <v>20129</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05306587667152979</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02512259238990219</v>
+        <v>0.02754047332621747</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09217730390072304</v>
+        <v>0.09515878065223858</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1644,19 +1644,19 @@
         <v>24476</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15248</v>
+        <v>15795</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35062</v>
+        <v>36412</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04609063693999255</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02871420467599065</v>
+        <v>0.02974304961474409</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06602449817188627</v>
+        <v>0.06856705627109508</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>16768</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8901</v>
+        <v>9923</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27624</v>
+        <v>27731</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05247923744664486</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02785835530194367</v>
+        <v>0.03105637139501701</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08645799270307253</v>
+        <v>0.08679265940073837</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1694,19 +1694,19 @@
         <v>5323</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1970</v>
+        <v>1896</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11252</v>
+        <v>11672</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02516461056957684</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.009315169444123271</v>
+        <v>0.008962007576106977</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.053190489346337</v>
+        <v>0.05517655682277497</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -1715,19 +1715,19 @@
         <v>22091</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14135</v>
+        <v>13715</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36796</v>
+        <v>33659</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04159882690501025</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02661837793525075</v>
+        <v>0.02582751265414828</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06929001472026194</v>
+        <v>0.06338253393577951</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>42878</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31632</v>
+        <v>30838</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>58909</v>
+        <v>56029</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1342014945261707</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0990032602801828</v>
+        <v>0.09651611371496954</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1843731589145695</v>
+        <v>0.175359615727656</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>32</v>
@@ -1765,19 +1765,19 @@
         <v>38502</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26971</v>
+        <v>27168</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51804</v>
+        <v>51310</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1820121599695002</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1275022613953371</v>
+        <v>0.1284315145614774</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2448957598778613</v>
+        <v>0.2425638749863834</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>71</v>
@@ -1786,19 +1786,19 @@
         <v>81380</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>65585</v>
+        <v>66700</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>101333</v>
+        <v>102535</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.15324622358776</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.123502826574349</v>
+        <v>0.1256030226768618</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1908198252007061</v>
+        <v>0.1930831173303698</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>59618</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46714</v>
+        <v>46164</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75681</v>
+        <v>72880</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1865916257902875</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1462064967745153</v>
+        <v>0.1444847235756477</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2368680661484451</v>
+        <v>0.2281001599175241</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -1836,19 +1836,19 @@
         <v>54087</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41055</v>
+        <v>41707</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68970</v>
+        <v>67856</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2556914689869552</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1940829726604268</v>
+        <v>0.1971675801919206</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3260479931471073</v>
+        <v>0.3207835914848667</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>107</v>
@@ -1857,19 +1857,19 @@
         <v>113705</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>96044</v>
+        <v>94602</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>133752</v>
+        <v>134019</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2141166095920441</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1808604425227315</v>
+        <v>0.1781448612469321</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2518681533235793</v>
+        <v>0.252369850812284</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>186994</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>169235</v>
+        <v>166238</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>204888</v>
+        <v>204993</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5852550211703972</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.529673257949847</v>
+        <v>0.5202924952475088</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6412602741655709</v>
+        <v>0.6415891000848463</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>94</v>
@@ -1907,19 +1907,19 @@
         <v>102396</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>87265</v>
+        <v>87178</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>118027</v>
+        <v>117762</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.484065883802438</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.41253589196361</v>
+        <v>0.4121264188071206</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5579615821930765</v>
+        <v>0.5567095535484868</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>259</v>
@@ -1928,19 +1928,19 @@
         <v>289390</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>265352</v>
+        <v>265073</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>313305</v>
+        <v>312878</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.544947702975193</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4996818231834254</v>
+        <v>0.4991582111211691</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5899830174705147</v>
+        <v>0.5891789119545553</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>16209</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9530</v>
+        <v>8721</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25851</v>
+        <v>24713</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03898435097782694</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02292033970592459</v>
+        <v>0.02097562975591546</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06217544949399573</v>
+        <v>0.05943815419361047</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2053,19 +2053,19 @@
         <v>11572</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6590</v>
+        <v>5897</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20449</v>
+        <v>20491</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03888275002638174</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02214107627507264</v>
+        <v>0.01981238270042849</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06870960985249924</v>
+        <v>0.06884873503888794</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -2074,19 +2074,19 @@
         <v>27781</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19603</v>
+        <v>18780</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40456</v>
+        <v>38466</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03894196406552536</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0274777761172188</v>
+        <v>0.0263244921616047</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05670900496783144</v>
+        <v>0.0539196284672431</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>14864</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8022</v>
+        <v>8371</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25036</v>
+        <v>23648</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03575044690145001</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01929353431608093</v>
+        <v>0.02013445361052123</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06021618431545368</v>
+        <v>0.05687740739095702</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2124,19 +2124,19 @@
         <v>12804</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7057</v>
+        <v>7430</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20768</v>
+        <v>23347</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04301997315996994</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02371053283176107</v>
+        <v>0.02496345399251266</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06978136394189796</v>
+        <v>0.0784436573272769</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>26</v>
@@ -2145,19 +2145,19 @@
         <v>27668</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17706</v>
+        <v>18388</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>39599</v>
+        <v>40024</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03878322137463074</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02481909641906178</v>
+        <v>0.02577498790831297</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05550716863580887</v>
+        <v>0.05610384452763252</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>71697</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57231</v>
+        <v>56810</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>89489</v>
+        <v>87086</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1724430006503721</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1376494180132978</v>
+        <v>0.1366372227994418</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2152333384050889</v>
+        <v>0.2094543691365168</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>58</v>
@@ -2195,19 +2195,19 @@
         <v>58727</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>45876</v>
+        <v>45793</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>73299</v>
+        <v>73673</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1973216695988167</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1541418546797859</v>
+        <v>0.1538645345734046</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2462807856194886</v>
+        <v>0.2475389825180045</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>126</v>
@@ -2216,19 +2216,19 @@
         <v>130425</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>110074</v>
+        <v>110494</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>153066</v>
+        <v>150790</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1828221353326531</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1542955851272495</v>
+        <v>0.15488490209244</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2145591033729063</v>
+        <v>0.2113694460083521</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>124801</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>106580</v>
+        <v>105175</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>144761</v>
+        <v>143160</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3001641470773424</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2563399230677632</v>
+        <v>0.2529611366707838</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3481721580218638</v>
+        <v>0.3443212953645806</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>66</v>
@@ -2266,19 +2266,19 @@
         <v>72429</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>58029</v>
+        <v>58914</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89065</v>
+        <v>88893</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2433598854880618</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1949742427073048</v>
+        <v>0.1979490215876311</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2992563507153477</v>
+        <v>0.2986778821576382</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>189</v>
@@ -2287,19 +2287,19 @@
         <v>197230</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>175391</v>
+        <v>173591</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>222823</v>
+        <v>224258</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2764659708290698</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2458535368624332</v>
+        <v>0.2433300394835934</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3123414022781044</v>
+        <v>0.3143522950395884</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>188204</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>167043</v>
+        <v>166764</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>210116</v>
+        <v>210199</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4526580543930085</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4017629124740738</v>
+        <v>0.4010929337965488</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5053595524550228</v>
+        <v>0.5055600623257588</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>137</v>
@@ -2337,19 +2337,19 @@
         <v>142089</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>125116</v>
+        <v>124232</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>161988</v>
+        <v>159962</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4774157217267699</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4203871171868862</v>
+        <v>0.4174140321851603</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.544273641528078</v>
+        <v>0.5374656910177861</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>317</v>
@@ -2358,19 +2358,19 @@
         <v>330293</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>301549</v>
+        <v>304492</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>357398</v>
+        <v>358583</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.462986708398121</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4226938764543536</v>
+        <v>0.4268196384423349</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.500980126668066</v>
+        <v>0.5026411783514788</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>59544</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>45805</v>
+        <v>43917</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>76755</v>
+        <v>74504</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04214593225199854</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03242120473509977</v>
+        <v>0.03108478549555971</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05432792640356501</v>
+        <v>0.05273448883484646</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>40</v>
@@ -2483,19 +2483,19 @@
         <v>42872</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>31055</v>
+        <v>29934</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>56474</v>
+        <v>56204</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0456722001724774</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03308330325463742</v>
+        <v>0.03188895732820278</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06016319102477785</v>
+        <v>0.05987516727727318</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>97</v>
@@ -2504,19 +2504,19 @@
         <v>102416</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>82728</v>
+        <v>84548</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>122823</v>
+        <v>124931</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04355356825923442</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03518108198650137</v>
+        <v>0.03595517616549365</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05223179578673629</v>
+        <v>0.05312854277568423</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>65341</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>51677</v>
+        <v>49978</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>84254</v>
+        <v>82146</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04624920202710035</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03657782414442055</v>
+        <v>0.03537505920197731</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05963547171161323</v>
+        <v>0.05814361279703703</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>36</v>
@@ -2554,19 +2554,19 @@
         <v>39618</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>27816</v>
+        <v>27208</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>54497</v>
+        <v>53915</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04220635549658056</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02963351919838718</v>
+        <v>0.02898549833738195</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05805683876546517</v>
+        <v>0.05743726974650265</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>95</v>
@@ -2575,19 +2575,19 @@
         <v>104960</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>86284</v>
+        <v>85851</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>128354</v>
+        <v>127349</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04463535518493656</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03669321728823074</v>
+        <v>0.03650933254404815</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05458401771700835</v>
+        <v>0.0541568148258594</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>223367</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>194680</v>
+        <v>195800</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>251778</v>
+        <v>254261</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1581013716267156</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1377963327135525</v>
+        <v>0.1385891016792144</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1782108413011815</v>
+        <v>0.1799681361293123</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>150</v>
@@ -2625,19 +2625,19 @@
         <v>163052</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>141674</v>
+        <v>140631</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>187308</v>
+        <v>191377</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1737033500690693</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1509284908938776</v>
+        <v>0.1498180324045783</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1995436414274676</v>
+        <v>0.2038789711611151</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>360</v>
@@ -2646,19 +2646,19 @@
         <v>386419</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>348347</v>
+        <v>348836</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>424840</v>
+        <v>422390</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1643294595471004</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1481389102971087</v>
+        <v>0.1483466298535792</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1806682388081405</v>
+        <v>0.1796264064243777</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>334092</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>302031</v>
+        <v>302026</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>364026</v>
+        <v>367921</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2364736734765893</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.213780672435791</v>
+        <v>0.2137767780443302</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2576610035882569</v>
+        <v>0.2604180273484743</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>222</v>
@@ -2696,19 +2696,19 @@
         <v>242905</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>217536</v>
+        <v>215177</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>271013</v>
+        <v>273660</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2587724330366844</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2317465401363973</v>
+        <v>0.2292329917721905</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2887164010526757</v>
+        <v>0.291536821177762</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>546</v>
@@ -2717,19 +2717,19 @@
         <v>576997</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>532853</v>
+        <v>536855</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>623323</v>
+        <v>620733</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2453750211850818</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.226602178871149</v>
+        <v>0.2283040255061264</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2650756793274454</v>
+        <v>0.2639744500893569</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>730464</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>690306</v>
+        <v>695411</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>768949</v>
+        <v>772224</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5170298206175963</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4886051632937198</v>
+        <v>0.492218759522106</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5442693158856249</v>
+        <v>0.5465876577545774</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>419</v>
@@ -2767,19 +2767,19 @@
         <v>450234</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>418695</v>
+        <v>418557</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>481850</v>
+        <v>482222</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4796456612251884</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4460462010752065</v>
+        <v>0.4458995218861467</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5133261556250407</v>
+        <v>0.5137229986930874</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1095</v>
@@ -2788,19 +2788,19 @@
         <v>1180699</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1127028</v>
+        <v>1129208</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1228916</v>
+        <v>1227525</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5021065958236468</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4792824315903522</v>
+        <v>0.4802097209890421</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5226116009923738</v>
+        <v>0.522020266490689</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>13472</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7595</v>
+        <v>7645</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22507</v>
+        <v>23565</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05582679722966927</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03147364850582785</v>
+        <v>0.03168019718170343</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09326568030539674</v>
+        <v>0.09765101471808035</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -3153,19 +3153,19 @@
         <v>13628</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7880</v>
+        <v>7811</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22090</v>
+        <v>21740</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08298175116798605</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0479780333368705</v>
+        <v>0.04756159033614855</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1345077776407952</v>
+        <v>0.1323716312911192</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -3174,19 +3174,19 @@
         <v>27100</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17997</v>
+        <v>18268</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38270</v>
+        <v>38911</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06682343919688695</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04437638226342139</v>
+        <v>0.04504395800366603</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09436396384733155</v>
+        <v>0.09594626109180202</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>28419</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19555</v>
+        <v>18986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40547</v>
+        <v>39085</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1177642822700025</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08103245393269598</v>
+        <v>0.07867567099436973</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1680226791858175</v>
+        <v>0.1619636153496882</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -3224,19 +3224,19 @@
         <v>18835</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11885</v>
+        <v>12535</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28289</v>
+        <v>27350</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1146845833047117</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07236645229437819</v>
+        <v>0.0763260072598974</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1722515830776503</v>
+        <v>0.1665316114857669</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>48</v>
@@ -3245,19 +3245,19 @@
         <v>47254</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36322</v>
+        <v>36104</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>61420</v>
+        <v>60776</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1165171305729294</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0895609700417138</v>
+        <v>0.08902437829932049</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.151446886263531</v>
+        <v>0.1498584899934039</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>39573</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29671</v>
+        <v>28452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51973</v>
+        <v>51655</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1639835071390446</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1229509507966165</v>
+        <v>0.1179016199212966</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2153707283604801</v>
+        <v>0.2140525237827766</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -3295,19 +3295,19 @@
         <v>34135</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24868</v>
+        <v>24981</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44750</v>
+        <v>44193</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2078483501421963</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1514185419529359</v>
+        <v>0.1521099889003645</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2724821335997471</v>
+        <v>0.269090235458429</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>75</v>
@@ -3316,19 +3316,19 @@
         <v>73708</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>58941</v>
+        <v>59146</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>89501</v>
+        <v>89295</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.181746968441523</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1453358293699634</v>
+        <v>0.1458409748180843</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2206890158018093</v>
+        <v>0.2201815317480248</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>82527</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67860</v>
+        <v>68455</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97071</v>
+        <v>97963</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3419819170527368</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2812009010475715</v>
+        <v>0.2836685509602467</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4022495536271437</v>
+        <v>0.4059449659992295</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -3366,19 +3366,19 @@
         <v>45403</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33965</v>
+        <v>34553</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57071</v>
+        <v>57164</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2764562185352082</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2068114322003324</v>
+        <v>0.2103943312227787</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3475011070179709</v>
+        <v>0.3480676851283921</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>124</v>
@@ -3387,19 +3387,19 @@
         <v>127930</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>109551</v>
+        <v>110720</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>148253</v>
+        <v>147795</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3154466981793819</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2701280694447156</v>
+        <v>0.2730097236371624</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3655568824658715</v>
+        <v>0.3644291895457982</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>77330</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62486</v>
+        <v>64035</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>91886</v>
+        <v>93377</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3204434963085468</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2589345063910788</v>
+        <v>0.2653506762112654</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3807620546774462</v>
+        <v>0.3869414892889562</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>55</v>
@@ -3437,19 +3437,19 @@
         <v>52231</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>41461</v>
+        <v>40974</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64096</v>
+        <v>64033</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3180290968498978</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2524546726487027</v>
+        <v>0.2494911787977301</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3902741850159094</v>
+        <v>0.3898958498369958</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>127</v>
@@ -3458,19 +3458,19 @@
         <v>129560</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>110290</v>
+        <v>109093</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>148585</v>
+        <v>148646</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3194657636092789</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2719494799328016</v>
+        <v>0.2689987445685079</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3663771007673744</v>
+        <v>0.3665265566788347</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>9328</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4321</v>
+        <v>4838</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17235</v>
+        <v>19151</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02257299505812522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0104552592068572</v>
+        <v>0.01170612342348242</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04170706557783823</v>
+        <v>0.04634318236928001</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -3583,19 +3583,19 @@
         <v>14347</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8134</v>
+        <v>8244</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22708</v>
+        <v>23340</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05260169890346187</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02982169908331101</v>
+        <v>0.03022625679601493</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08325633274117163</v>
+        <v>0.08557073255931653</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -3604,19 +3604,19 @@
         <v>23675</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14620</v>
+        <v>15471</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35283</v>
+        <v>36224</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03451235182994407</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02131248244846147</v>
+        <v>0.02255264286646824</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05143265440138306</v>
+        <v>0.05280527417804866</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>30220</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19830</v>
+        <v>21391</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43136</v>
+        <v>44223</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07312892390574274</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0479853037475927</v>
+        <v>0.05176350607039406</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1043838435912327</v>
+        <v>0.107014551973736</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -3654,19 +3654,19 @@
         <v>24290</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16154</v>
+        <v>15929</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34585</v>
+        <v>34117</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0890545627400766</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05922605487357096</v>
+        <v>0.05840277901766012</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1268017542726793</v>
+        <v>0.1250866039001955</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>52</v>
@@ -3675,19 +3675,19 @@
         <v>54510</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>41910</v>
+        <v>40923</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>70869</v>
+        <v>72068</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07946092827201756</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06109347530971143</v>
+        <v>0.05965535033367157</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1033077939657231</v>
+        <v>0.1050562116516817</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>88232</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>73027</v>
+        <v>71611</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>107709</v>
+        <v>104016</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2135087502759911</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1767145160854369</v>
+        <v>0.1732897793640578</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2606407406039168</v>
+        <v>0.2517059808335428</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>57</v>
@@ -3725,19 +3725,19 @@
         <v>56678</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44481</v>
+        <v>44484</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>69554</v>
+        <v>70536</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.207800417764941</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1630809954509122</v>
+        <v>0.1630937863362033</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.255010503230365</v>
+        <v>0.2586094945844244</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>137</v>
@@ -3746,19 +3746,19 @@
         <v>144909</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>123957</v>
+        <v>121395</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>167387</v>
+        <v>167867</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2112391278916009</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1806960139827792</v>
+        <v>0.1769620696406745</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2440055621557757</v>
+        <v>0.2447048834146364</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>113771</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>94488</v>
+        <v>96265</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133789</v>
+        <v>134017</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2753100304796895</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2286488243298357</v>
+        <v>0.2329476230202449</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3237522205881188</v>
+        <v>0.324302779466467</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -3796,19 +3796,19 @@
         <v>69643</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56327</v>
+        <v>56996</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85129</v>
+        <v>84938</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2553344596247975</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2065133225797105</v>
+        <v>0.2089686063543229</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3121118724508334</v>
+        <v>0.311410430809989</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>175</v>
@@ -3817,19 +3817,19 @@
         <v>183413</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>160777</v>
+        <v>162419</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>208789</v>
+        <v>209761</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2673677806781104</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2343701742965188</v>
+        <v>0.2367638182105094</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3043590429894951</v>
+        <v>0.3057759867599043</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>171695</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>151132</v>
+        <v>150018</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>194122</v>
+        <v>192572</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4154793002804515</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3657184454913318</v>
+        <v>0.3630237747506532</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4697499299794878</v>
+        <v>0.4659973304676763</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>100</v>
@@ -3867,19 +3867,19 @@
         <v>107794</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>91318</v>
+        <v>90918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>124084</v>
+        <v>124389</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3952088609667231</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3348050743946432</v>
+        <v>0.3333385197369133</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.454936583573697</v>
+        <v>0.456052570581538</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>251</v>
@@ -3888,19 +3888,19 @@
         <v>279489</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>250268</v>
+        <v>254247</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>305899</v>
+        <v>307442</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4074198113283271</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3648234655746412</v>
+        <v>0.3706237437295061</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4459190312734176</v>
+        <v>0.4481683734665026</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>26535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17011</v>
+        <v>16753</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38494</v>
+        <v>38257</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0731444030969447</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04689284603351419</v>
+        <v>0.04618153014836938</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1061105097147726</v>
+        <v>0.1054573809928042</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -4013,19 +4013,19 @@
         <v>13603</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7476</v>
+        <v>7183</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22777</v>
+        <v>21705</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05047097740977735</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02773759930905353</v>
+        <v>0.02665061175341124</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08450941004720885</v>
+        <v>0.08053204097322043</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -4034,19 +4034,19 @@
         <v>40138</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27668</v>
+        <v>28046</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53648</v>
+        <v>53848</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06347953751585064</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04375740705217092</v>
+        <v>0.0443564644094968</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08484631071106999</v>
+        <v>0.08516356504962204</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>40143</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28976</v>
+        <v>29313</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>55168</v>
+        <v>54296</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1106574350277063</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07987505818623944</v>
+        <v>0.08080346943537664</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1520729885089413</v>
+        <v>0.1496704460991983</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -4084,19 +4084,19 @@
         <v>39380</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28694</v>
+        <v>28852</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52119</v>
+        <v>52287</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1461080396861412</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.106463435607046</v>
+        <v>0.1070481035651348</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1933735945180942</v>
+        <v>0.1939990574465493</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>75</v>
@@ -4105,19 +4105,19 @@
         <v>79523</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>64265</v>
+        <v>63480</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>98105</v>
+        <v>97890</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1257687522816402</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1016371698052604</v>
+        <v>0.100396277152636</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1551578728504624</v>
+        <v>0.1548166919879982</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>106397</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>90310</v>
+        <v>87917</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>126205</v>
+        <v>125651</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2932904745527334</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2489465814673286</v>
+        <v>0.2423485433119066</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3478923884068308</v>
+        <v>0.3463649572848554</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>75</v>
@@ -4155,19 +4155,19 @@
         <v>76041</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>60431</v>
+        <v>60972</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>90463</v>
+        <v>92581</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2821291177788108</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2242136323223785</v>
+        <v>0.2262195982956215</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3356412952354909</v>
+        <v>0.3434984584441356</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>168</v>
@@ -4176,19 +4176,19 @@
         <v>182438</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>159731</v>
+        <v>159050</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>206736</v>
+        <v>206056</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2885327897453754</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2526214899385313</v>
+        <v>0.2515440416427659</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3269622162366174</v>
+        <v>0.3258866753174163</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>93703</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>77590</v>
+        <v>75763</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>111522</v>
+        <v>113051</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2582987547662463</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2138829761502681</v>
+        <v>0.2088461750432864</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3074185959065368</v>
+        <v>0.3116327290859475</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -4226,19 +4226,19 @@
         <v>66438</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53518</v>
+        <v>54774</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>81145</v>
+        <v>81319</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2464998629931776</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1985645517624016</v>
+        <v>0.203223276845303</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3010678165492479</v>
+        <v>0.301712787562401</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>153</v>
@@ -4247,19 +4247,19 @@
         <v>160141</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>139047</v>
+        <v>139325</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>184394</v>
+        <v>184087</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2532693117272473</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2199091323910908</v>
+        <v>0.2203486546665573</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2916275609838992</v>
+        <v>0.2911422526383891</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>95992</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>79462</v>
+        <v>78950</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>113337</v>
+        <v>115290</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2646089325563693</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2190419318469162</v>
+        <v>0.2176318887313494</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3124212829473205</v>
+        <v>0.3178034557841038</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>71</v>
@@ -4297,19 +4297,19 @@
         <v>74063</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>58910</v>
+        <v>60707</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>89259</v>
+        <v>89666</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2747920021320931</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2185712198582908</v>
+        <v>0.2252376985235305</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3311741166226791</v>
+        <v>0.3326833151354639</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>158</v>
@@ -4318,19 +4318,19 @@
         <v>170055</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>147671</v>
+        <v>145981</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>193704</v>
+        <v>193355</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2689496087298864</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2335479671320941</v>
+        <v>0.230875489669938</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3063506885592021</v>
+        <v>0.3057999089911961</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>18813</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11454</v>
+        <v>11276</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28033</v>
+        <v>27557</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04715128645852612</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02870671756821046</v>
+        <v>0.02826151531156598</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07025869023100546</v>
+        <v>0.06906380798684809</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -4443,19 +4443,19 @@
         <v>16221</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9183</v>
+        <v>9336</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25994</v>
+        <v>25155</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0498381865973741</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02821287394639986</v>
+        <v>0.02868362245312929</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07986537296395278</v>
+        <v>0.07728757913410457</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -4464,19 +4464,19 @@
         <v>35034</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24531</v>
+        <v>24272</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48147</v>
+        <v>47543</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04835839065582921</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03386073161683462</v>
+        <v>0.03350293730664527</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06645719135383235</v>
+        <v>0.06562356329470169</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>24944</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16544</v>
+        <v>16458</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>36550</v>
+        <v>37211</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06251591656249239</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04146305515403087</v>
+        <v>0.04124843179332206</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09160456315065568</v>
+        <v>0.09325943693874417</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -4514,19 +4514,19 @@
         <v>19223</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11253</v>
+        <v>11927</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28818</v>
+        <v>28980</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05906194990425295</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03457358691904207</v>
+        <v>0.03664448801530318</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0885427745713757</v>
+        <v>0.08903806708568517</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>43</v>
@@ -4535,19 +4535,19 @@
         <v>44167</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>33879</v>
+        <v>32628</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>59151</v>
+        <v>57240</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06096420364610043</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04676296387820086</v>
+        <v>0.04503731325831332</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08164645025615946</v>
+        <v>0.07900902014637623</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>72146</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57757</v>
+        <v>58771</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>88470</v>
+        <v>91508</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1808154965923496</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1447530704199967</v>
+        <v>0.1472953161578773</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2217290977099457</v>
+        <v>0.2293427342484876</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>61</v>
@@ -4585,19 +4585,19 @@
         <v>62816</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>49358</v>
+        <v>48896</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>78373</v>
+        <v>78057</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1929979291461276</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1516492957521179</v>
+        <v>0.1502307814333062</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2407967812212967</v>
+        <v>0.2398262014310764</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>132</v>
@@ -4606,19 +4606,19 @@
         <v>134961</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>116465</v>
+        <v>116773</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>158965</v>
+        <v>157547</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1862885192984827</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.160758096623363</v>
+        <v>0.161182601170047</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2194212319122699</v>
+        <v>0.2174638358448585</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>101336</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>84378</v>
+        <v>84319</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119513</v>
+        <v>118492</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2539750601278653</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2114740108623015</v>
+        <v>0.2113250251607064</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2995294438057976</v>
+        <v>0.2969707168734003</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>90</v>
@@ -4656,19 +4656,19 @@
         <v>95426</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>78689</v>
+        <v>78416</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>111813</v>
+        <v>112569</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2931916148765422</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2417664690962879</v>
+        <v>0.2409293424720728</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.343538210615253</v>
+        <v>0.3458619262636011</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>192</v>
@@ -4677,19 +4677,19 @@
         <v>196763</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>175353</v>
+        <v>171402</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>224470</v>
+        <v>220986</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2715933062087155</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2420411991919259</v>
+        <v>0.2365877472626848</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.309837749133404</v>
+        <v>0.3050291838886195</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>181762</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>163470</v>
+        <v>162767</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>201547</v>
+        <v>202541</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4555422402587666</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4096973160027569</v>
+        <v>0.4079359700081788</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.505129349114403</v>
+        <v>0.507619741753089</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>122</v>
@@ -4727,19 +4727,19 @@
         <v>131788</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>116013</v>
+        <v>112723</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>151927</v>
+        <v>150946</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4049103194757032</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3564427122115976</v>
+        <v>0.3463358493683071</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4667874507691755</v>
+        <v>0.463773728870394</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>298</v>
@@ -4748,19 +4748,19 @@
         <v>313550</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>285119</v>
+        <v>286629</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>339039</v>
+        <v>341128</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4327955801908721</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.39355244162741</v>
+        <v>0.3956364968543171</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.467979003294945</v>
+        <v>0.4708624714878882</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>68148</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>51791</v>
+        <v>53466</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>85789</v>
+        <v>85992</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04811590241816793</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03656680326266835</v>
+        <v>0.03774966646577624</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06057128309883174</v>
+        <v>0.06071463975682508</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>56</v>
@@ -4873,19 +4873,19 @@
         <v>57800</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>44583</v>
+        <v>43185</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>75690</v>
+        <v>73376</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05600840088287285</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04320172195661936</v>
+        <v>0.0418471236485216</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07334423368645576</v>
+        <v>0.07110246729141452</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>117</v>
@@ -4894,19 +4894,19 @@
         <v>125948</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>105393</v>
+        <v>106532</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>149067</v>
+        <v>149713</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05144264026624666</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04304694321907278</v>
+        <v>0.04351234451216438</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06088534540852916</v>
+        <v>0.06114927993991254</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>123726</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>102530</v>
+        <v>103541</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>146816</v>
+        <v>146214</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08735650300162234</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07239078677968859</v>
+        <v>0.07310503237738694</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1036592215770634</v>
+        <v>0.1032337091592823</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>103</v>
@@ -4944,19 +4944,19 @@
         <v>101727</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>83012</v>
+        <v>83942</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>121570</v>
+        <v>121318</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09857483017892085</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08043916247018564</v>
+        <v>0.08134060728415642</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1178021787847743</v>
+        <v>0.1175578527052719</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>218</v>
@@ -4965,19 +4965,19 @@
         <v>225454</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>196023</v>
+        <v>197636</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>255079</v>
+        <v>254362</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09208509861424684</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08006421096591494</v>
+        <v>0.08072316471089165</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1041853895008494</v>
+        <v>0.1038924826968357</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>306347</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>271069</v>
+        <v>274770</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>336374</v>
+        <v>339718</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2162950177698779</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.19138761734</v>
+        <v>0.1940003134900344</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2374955381300507</v>
+        <v>0.2398567325045624</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>230</v>
@@ -5015,19 +5015,19 @@
         <v>229670</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>203674</v>
+        <v>199996</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>255297</v>
+        <v>254599</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.222552053869564</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1973619062328673</v>
+        <v>0.1937977431559036</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2473846834694104</v>
+        <v>0.246708379296031</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>512</v>
@@ -5036,19 +5036,19 @@
         <v>536016</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>496622</v>
+        <v>496199</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>578581</v>
+        <v>578816</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2189323979230331</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2028420258607924</v>
+        <v>0.2026692444446004</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2363179369092507</v>
+        <v>0.2364138199295331</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>391337</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>357291</v>
+        <v>354734</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>425307</v>
+        <v>426106</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2763023524901101</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2522643367380548</v>
+        <v>0.2504588157589692</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3002867117924989</v>
+        <v>0.3008504465104577</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>271</v>
@@ -5086,19 +5086,19 @@
         <v>276910</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>247415</v>
+        <v>250485</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>305735</v>
+        <v>310009</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2683281666079975</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2397477047087328</v>
+        <v>0.2427219010443383</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2962603824046975</v>
+        <v>0.3004013184855251</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>644</v>
@@ -5107,19 +5107,19 @@
         <v>668247</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>625502</v>
+        <v>626149</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>718404</v>
+        <v>711705</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2729411828807308</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2554823635283585</v>
+        <v>0.2557464233240477</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2934275041281628</v>
+        <v>0.2906915356603594</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>526779</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>489634</v>
+        <v>490404</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>563585</v>
+        <v>564820</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3719302243202217</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3457045744039042</v>
+        <v>0.346247914454013</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3979169864618543</v>
+        <v>0.3987890790596141</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>348</v>
@@ -5157,19 +5157,19 @@
         <v>365875</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>334516</v>
+        <v>334117</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>395802</v>
+        <v>397208</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3545365484606448</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3241494400637772</v>
+        <v>0.32376210791377</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3835353847446619</v>
+        <v>0.384897753431773</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>834</v>
@@ -5178,19 +5178,19 @@
         <v>892654</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>849260</v>
+        <v>842295</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>943690</v>
+        <v>940386</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3645986803157426</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3468748206787903</v>
+        <v>0.3440299863273271</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3854441497232896</v>
+        <v>0.38409475287825</v>
       </c>
     </row>
     <row r="33">
